--- a/Datos/censo_11.xlsx
+++ b/Datos/censo_11.xlsx
@@ -647,9 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:S1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -708,40 +706,40 @@
         <v>101</v>
       </c>
       <c r="B2">
-        <v>140076</v>
+        <v>259303</v>
       </c>
       <c r="C2">
-        <v>144267</v>
+        <v>264730</v>
       </c>
       <c r="D2">
-        <v>147643</v>
+        <v>269353</v>
       </c>
       <c r="E2">
-        <v>150781</v>
+        <v>240066</v>
       </c>
       <c r="F2">
-        <v>150781</v>
+        <v>273637</v>
       </c>
       <c r="G2">
-        <v>157056</v>
+        <v>282265</v>
       </c>
       <c r="H2">
-        <v>159855</v>
+        <v>286511</v>
       </c>
       <c r="I2">
-        <v>162475</v>
+        <v>290644</v>
       </c>
       <c r="J2">
-        <v>165101</v>
+        <v>294910</v>
       </c>
       <c r="K2">
-        <v>167506</v>
+        <v>299279</v>
       </c>
       <c r="L2">
-        <v>169759</v>
+        <v>303602</v>
       </c>
       <c r="M2">
-        <v>171866</v>
+        <v>307503</v>
       </c>
       <c r="N2" t="s">
         <v>65</v>
@@ -755,40 +753,40 @@
         <v>102</v>
       </c>
       <c r="B3">
-        <v>27479</v>
+        <v>50869</v>
       </c>
       <c r="C3">
-        <v>28302</v>
+        <v>51934</v>
       </c>
       <c r="D3">
-        <v>28964</v>
+        <v>52841</v>
       </c>
       <c r="E3">
-        <v>29580</v>
+        <v>47096</v>
       </c>
       <c r="F3">
-        <v>29580</v>
+        <v>53681</v>
       </c>
       <c r="G3">
-        <v>30811</v>
+        <v>55374</v>
       </c>
       <c r="H3">
-        <v>31360</v>
+        <v>56207</v>
       </c>
       <c r="I3">
-        <v>31874</v>
+        <v>57017</v>
       </c>
       <c r="J3">
-        <v>32389</v>
+        <v>57854</v>
       </c>
       <c r="K3">
-        <v>32861</v>
+        <v>58711</v>
       </c>
       <c r="L3">
-        <v>33302</v>
+        <v>59560</v>
       </c>
       <c r="M3">
-        <v>33716</v>
+        <v>60325</v>
       </c>
       <c r="N3" t="s">
         <v>65</v>
@@ -802,40 +800,40 @@
         <v>103</v>
       </c>
       <c r="B4">
-        <v>101347</v>
+        <v>187609</v>
       </c>
       <c r="C4">
-        <v>104379</v>
+        <v>191535</v>
       </c>
       <c r="D4">
-        <v>106821</v>
+        <v>194880</v>
       </c>
       <c r="E4">
-        <v>109092</v>
+        <v>173691</v>
       </c>
       <c r="F4">
-        <v>109092</v>
+        <v>197979</v>
       </c>
       <c r="G4">
-        <v>113632</v>
+        <v>204222</v>
       </c>
       <c r="H4">
-        <v>115657</v>
+        <v>207294</v>
       </c>
       <c r="I4">
-        <v>117553</v>
+        <v>210285</v>
       </c>
       <c r="J4">
-        <v>119453</v>
+        <v>213371</v>
       </c>
       <c r="K4">
-        <v>121193</v>
+        <v>216532</v>
       </c>
       <c r="L4">
-        <v>122823</v>
+        <v>219660</v>
       </c>
       <c r="M4">
-        <v>124347</v>
+        <v>222482</v>
       </c>
       <c r="N4" t="s">
         <v>65</v>
@@ -849,40 +847,40 @@
         <v>104</v>
       </c>
       <c r="B5">
-        <v>16049</v>
+        <v>29710</v>
       </c>
       <c r="C5">
-        <v>16530</v>
+        <v>30332</v>
       </c>
       <c r="D5">
-        <v>16916</v>
+        <v>30862</v>
       </c>
       <c r="E5">
-        <v>17276</v>
+        <v>27506</v>
       </c>
       <c r="F5">
-        <v>17276</v>
+        <v>31353</v>
       </c>
       <c r="G5">
-        <v>17995</v>
+        <v>32341</v>
       </c>
       <c r="H5">
-        <v>18316</v>
+        <v>32828</v>
       </c>
       <c r="I5">
-        <v>18616</v>
+        <v>33301</v>
       </c>
       <c r="J5">
-        <v>18917</v>
+        <v>33790</v>
       </c>
       <c r="K5">
-        <v>19192</v>
+        <v>34291</v>
       </c>
       <c r="L5">
-        <v>19450</v>
+        <v>34786</v>
       </c>
       <c r="M5">
-        <v>19692</v>
+        <v>35233</v>
       </c>
       <c r="N5" t="s">
         <v>65</v>
@@ -896,40 +894,40 @@
         <v>105</v>
       </c>
       <c r="B6">
-        <v>7917</v>
+        <v>14654</v>
       </c>
       <c r="C6">
-        <v>8154</v>
+        <v>14961</v>
       </c>
       <c r="D6">
-        <v>8344</v>
+        <v>15222</v>
       </c>
       <c r="E6">
-        <v>8522</v>
+        <v>13568</v>
       </c>
       <c r="F6">
-        <v>8522</v>
+        <v>15465</v>
       </c>
       <c r="G6">
-        <v>8876</v>
+        <v>15952</v>
       </c>
       <c r="H6">
-        <v>9035</v>
+        <v>16192</v>
       </c>
       <c r="I6">
-        <v>9183</v>
+        <v>16426</v>
       </c>
       <c r="J6">
-        <v>9331</v>
+        <v>16667</v>
       </c>
       <c r="K6">
-        <v>9467</v>
+        <v>16914</v>
       </c>
       <c r="L6">
-        <v>9594</v>
+        <v>17158</v>
       </c>
       <c r="M6">
-        <v>9713</v>
+        <v>17379</v>
       </c>
       <c r="N6" t="s">
         <v>65</v>
@@ -943,40 +941,40 @@
         <v>106</v>
       </c>
       <c r="B7">
-        <v>28152</v>
+        <v>52114</v>
       </c>
       <c r="C7">
-        <v>28994</v>
+        <v>53204</v>
       </c>
       <c r="D7">
-        <v>29673</v>
+        <v>54134</v>
       </c>
       <c r="E7">
-        <v>30303</v>
+        <v>48247</v>
       </c>
       <c r="F7">
-        <v>30303</v>
+        <v>54995</v>
       </c>
       <c r="G7">
-        <v>31565</v>
+        <v>56728</v>
       </c>
       <c r="H7">
-        <v>32127</v>
+        <v>57582</v>
       </c>
       <c r="I7">
-        <v>32654</v>
+        <v>58413</v>
       </c>
       <c r="J7">
-        <v>33181</v>
+        <v>59270</v>
       </c>
       <c r="K7">
-        <v>33665</v>
+        <v>60148</v>
       </c>
       <c r="L7">
-        <v>34117</v>
+        <v>61017</v>
       </c>
       <c r="M7">
-        <v>34541</v>
+        <v>61801</v>
       </c>
       <c r="N7" t="s">
         <v>65</v>
@@ -990,40 +988,40 @@
         <v>107</v>
       </c>
       <c r="B8">
-        <v>12786</v>
+        <v>23669</v>
       </c>
       <c r="C8">
-        <v>13169</v>
+        <v>24165</v>
       </c>
       <c r="D8">
-        <v>13477</v>
+        <v>24587</v>
       </c>
       <c r="E8">
-        <v>13764</v>
+        <v>21914</v>
       </c>
       <c r="F8">
-        <v>13764</v>
+        <v>24978</v>
       </c>
       <c r="G8">
-        <v>14336</v>
+        <v>25765</v>
       </c>
       <c r="H8">
-        <v>14592</v>
+        <v>26153</v>
       </c>
       <c r="I8">
-        <v>14831</v>
+        <v>26530</v>
       </c>
       <c r="J8">
-        <v>15071</v>
+        <v>26920</v>
       </c>
       <c r="K8">
-        <v>15290</v>
+        <v>27318</v>
       </c>
       <c r="L8">
-        <v>15496</v>
+        <v>27713</v>
       </c>
       <c r="M8">
-        <v>15688</v>
+        <v>28069</v>
       </c>
       <c r="N8" t="s">
         <v>65</v>
@@ -1037,40 +1035,40 @@
         <v>108</v>
       </c>
       <c r="B9">
-        <v>55963</v>
+        <v>103597</v>
       </c>
       <c r="C9">
-        <v>57638</v>
+        <v>105765</v>
       </c>
       <c r="D9">
-        <v>58987</v>
+        <v>107612</v>
       </c>
       <c r="E9">
-        <v>60240</v>
+        <v>95911</v>
       </c>
       <c r="F9">
-        <v>60240</v>
+        <v>109324</v>
       </c>
       <c r="G9">
-        <v>62747</v>
+        <v>112770</v>
       </c>
       <c r="H9">
-        <v>63866</v>
+        <v>114467</v>
       </c>
       <c r="I9">
-        <v>64912</v>
+        <v>116118</v>
       </c>
       <c r="J9">
-        <v>65962</v>
+        <v>117823</v>
       </c>
       <c r="K9">
-        <v>66922</v>
+        <v>119568</v>
       </c>
       <c r="L9">
-        <v>67822</v>
+        <v>121295</v>
       </c>
       <c r="M9">
-        <v>68664</v>
+        <v>122854</v>
       </c>
       <c r="N9" t="s">
         <v>65</v>
@@ -1084,40 +1082,40 @@
         <v>109</v>
       </c>
       <c r="B10">
-        <v>23888</v>
+        <v>44220</v>
       </c>
       <c r="C10">
-        <v>24602</v>
+        <v>45145</v>
       </c>
       <c r="D10">
-        <v>25178</v>
+        <v>45934</v>
       </c>
       <c r="E10">
-        <v>25713</v>
+        <v>40939</v>
       </c>
       <c r="F10">
-        <v>25713</v>
+        <v>46664</v>
       </c>
       <c r="G10">
-        <v>26783</v>
+        <v>48136</v>
       </c>
       <c r="H10">
-        <v>27261</v>
+        <v>48860</v>
       </c>
       <c r="I10">
-        <v>27708</v>
+        <v>49565</v>
       </c>
       <c r="J10">
-        <v>28155</v>
+        <v>50292</v>
       </c>
       <c r="K10">
-        <v>28565</v>
+        <v>51037</v>
       </c>
       <c r="L10">
-        <v>28950</v>
+        <v>51775</v>
       </c>
       <c r="M10">
-        <v>29309</v>
+        <v>52440</v>
       </c>
       <c r="N10" t="s">
         <v>65</v>
@@ -1131,40 +1129,40 @@
         <v>110</v>
       </c>
       <c r="B11">
-        <v>37737</v>
+        <v>69857</v>
       </c>
       <c r="C11">
-        <v>38866</v>
+        <v>71319</v>
       </c>
       <c r="D11">
-        <v>39776</v>
+        <v>72564</v>
       </c>
       <c r="E11">
-        <v>40621</v>
+        <v>64675</v>
       </c>
       <c r="F11">
-        <v>40621</v>
+        <v>73718</v>
       </c>
       <c r="G11">
-        <v>42312</v>
+        <v>76043</v>
       </c>
       <c r="H11">
-        <v>43066</v>
+        <v>77186</v>
       </c>
       <c r="I11">
-        <v>43772</v>
+        <v>78300</v>
       </c>
       <c r="J11">
-        <v>44479</v>
+        <v>79449</v>
       </c>
       <c r="K11">
-        <v>45127</v>
+        <v>80626</v>
       </c>
       <c r="L11">
-        <v>45734</v>
+        <v>81791</v>
       </c>
       <c r="M11">
-        <v>46301</v>
+        <v>82842</v>
       </c>
       <c r="N11" t="s">
         <v>65</v>
@@ -1178,40 +1176,40 @@
         <v>111</v>
       </c>
       <c r="B12">
-        <v>29413</v>
+        <v>54449</v>
       </c>
       <c r="C12">
-        <v>30293</v>
+        <v>55589</v>
       </c>
       <c r="D12">
-        <v>31002</v>
+        <v>56560</v>
       </c>
       <c r="E12">
-        <v>31661</v>
+        <v>50409</v>
       </c>
       <c r="F12">
-        <v>31661</v>
+        <v>57459</v>
       </c>
       <c r="G12">
-        <v>32979</v>
+        <v>59271</v>
       </c>
       <c r="H12">
-        <v>33567</v>
+        <v>60162</v>
       </c>
       <c r="I12">
-        <v>34117</v>
+        <v>61031</v>
       </c>
       <c r="J12">
-        <v>34668</v>
+        <v>61926</v>
       </c>
       <c r="K12">
-        <v>35173</v>
+        <v>62844</v>
       </c>
       <c r="L12">
-        <v>35646</v>
+        <v>63751</v>
       </c>
       <c r="M12">
-        <v>36089</v>
+        <v>64571</v>
       </c>
       <c r="N12" t="s">
         <v>65</v>
@@ -1225,40 +1223,40 @@
         <v>112</v>
       </c>
       <c r="B13">
-        <v>9827</v>
+        <v>18193</v>
       </c>
       <c r="C13">
-        <v>10121</v>
+        <v>18573</v>
       </c>
       <c r="D13">
-        <v>10358</v>
+        <v>18898</v>
       </c>
       <c r="E13">
-        <v>10578</v>
+        <v>16842</v>
       </c>
       <c r="F13">
-        <v>10578</v>
+        <v>19198</v>
       </c>
       <c r="G13">
-        <v>11019</v>
+        <v>19803</v>
       </c>
       <c r="H13">
-        <v>11215</v>
+        <v>20101</v>
       </c>
       <c r="I13">
-        <v>11399</v>
+        <v>20391</v>
       </c>
       <c r="J13">
-        <v>11583</v>
+        <v>20691</v>
       </c>
       <c r="K13">
-        <v>11752</v>
+        <v>20997</v>
       </c>
       <c r="L13">
-        <v>11910</v>
+        <v>21301</v>
       </c>
       <c r="M13">
-        <v>12058</v>
+        <v>21574</v>
       </c>
       <c r="N13" t="s">
         <v>65</v>
@@ -1272,40 +1270,40 @@
         <v>113</v>
       </c>
       <c r="B14">
-        <v>31532</v>
+        <v>58371</v>
       </c>
       <c r="C14">
-        <v>32475</v>
+        <v>59592</v>
       </c>
       <c r="D14">
-        <v>33235</v>
+        <v>60633</v>
       </c>
       <c r="E14">
-        <v>33941</v>
+        <v>54039</v>
       </c>
       <c r="F14">
-        <v>33941</v>
+        <v>61597</v>
       </c>
       <c r="G14">
-        <v>35354</v>
+        <v>63539</v>
       </c>
       <c r="H14">
-        <v>35984</v>
+        <v>64495</v>
       </c>
       <c r="I14">
-        <v>36574</v>
+        <v>65426</v>
       </c>
       <c r="J14">
-        <v>37165</v>
+        <v>66386</v>
       </c>
       <c r="K14">
-        <v>37706</v>
+        <v>67369</v>
       </c>
       <c r="L14">
-        <v>38213</v>
+        <v>68343</v>
       </c>
       <c r="M14">
-        <v>38688</v>
+        <v>69221</v>
       </c>
       <c r="N14" t="s">
         <v>65</v>
@@ -1319,40 +1317,40 @@
         <v>114</v>
       </c>
       <c r="B15">
-        <v>27679</v>
+        <v>51237</v>
       </c>
       <c r="C15">
-        <v>28507</v>
+        <v>52310</v>
       </c>
       <c r="D15">
-        <v>29174</v>
+        <v>53223</v>
       </c>
       <c r="E15">
-        <v>29794</v>
+        <v>47437</v>
       </c>
       <c r="F15">
-        <v>29794</v>
+        <v>54069</v>
       </c>
       <c r="G15">
-        <v>31034</v>
+        <v>55774</v>
       </c>
       <c r="H15">
-        <v>31587</v>
+        <v>56613</v>
       </c>
       <c r="I15">
-        <v>32105</v>
+        <v>57430</v>
       </c>
       <c r="J15">
-        <v>32624</v>
+        <v>58273</v>
       </c>
       <c r="K15">
-        <v>33099</v>
+        <v>59136</v>
       </c>
       <c r="L15">
-        <v>33544</v>
+        <v>59991</v>
       </c>
       <c r="M15">
-        <v>33960</v>
+        <v>60761</v>
       </c>
       <c r="N15" t="s">
         <v>65</v>
@@ -1366,40 +1364,40 @@
         <v>115</v>
       </c>
       <c r="B16">
-        <v>23892</v>
+        <v>44228</v>
       </c>
       <c r="C16">
-        <v>24607</v>
+        <v>45153</v>
       </c>
       <c r="D16">
-        <v>25183</v>
+        <v>45942</v>
       </c>
       <c r="E16">
-        <v>25718</v>
+        <v>40947</v>
       </c>
       <c r="F16">
-        <v>25718</v>
+        <v>46672</v>
       </c>
       <c r="G16">
-        <v>26788</v>
+        <v>48144</v>
       </c>
       <c r="H16">
-        <v>27266</v>
+        <v>48868</v>
       </c>
       <c r="I16">
-        <v>27713</v>
+        <v>49573</v>
       </c>
       <c r="J16">
-        <v>28161</v>
+        <v>50301</v>
       </c>
       <c r="K16">
-        <v>28571</v>
+        <v>51046</v>
       </c>
       <c r="L16">
-        <v>28955</v>
+        <v>51783</v>
       </c>
       <c r="M16">
-        <v>29314</v>
+        <v>52449</v>
       </c>
       <c r="N16" t="s">
         <v>65</v>
@@ -1413,40 +1411,40 @@
         <v>116</v>
       </c>
       <c r="B17">
-        <v>2680</v>
+        <v>4962</v>
       </c>
       <c r="C17">
-        <v>2761</v>
+        <v>5066</v>
       </c>
       <c r="D17">
-        <v>2825</v>
+        <v>5155</v>
       </c>
       <c r="E17">
-        <v>2885</v>
+        <v>4593</v>
       </c>
       <c r="F17">
-        <v>2885</v>
+        <v>5237</v>
       </c>
       <c r="G17">
-        <v>3005</v>
+        <v>5402</v>
       </c>
       <c r="H17">
-        <v>3059</v>
+        <v>5483</v>
       </c>
       <c r="I17">
-        <v>3109</v>
+        <v>5562</v>
       </c>
       <c r="J17">
-        <v>3159</v>
+        <v>5644</v>
       </c>
       <c r="K17">
-        <v>3205</v>
+        <v>5727</v>
       </c>
       <c r="L17">
-        <v>3248</v>
+        <v>5810</v>
       </c>
       <c r="M17">
-        <v>3289</v>
+        <v>5885</v>
       </c>
       <c r="N17" t="s">
         <v>65</v>
@@ -1460,40 +1458,40 @@
         <v>117</v>
       </c>
       <c r="B18">
-        <v>3379</v>
+        <v>6254</v>
       </c>
       <c r="C18">
-        <v>3480</v>
+        <v>6385</v>
       </c>
       <c r="D18">
-        <v>3561</v>
+        <v>6496</v>
       </c>
       <c r="E18">
-        <v>3637</v>
+        <v>5791</v>
       </c>
       <c r="F18">
-        <v>3637</v>
+        <v>6599</v>
       </c>
       <c r="G18">
-        <v>3788</v>
+        <v>6808</v>
       </c>
       <c r="H18">
-        <v>3856</v>
+        <v>6910</v>
       </c>
       <c r="I18">
-        <v>3919</v>
+        <v>7010</v>
       </c>
       <c r="J18">
-        <v>3982</v>
+        <v>7113</v>
       </c>
       <c r="K18">
-        <v>4040</v>
+        <v>7218</v>
       </c>
       <c r="L18">
-        <v>4095</v>
+        <v>7322</v>
       </c>
       <c r="M18">
-        <v>4145</v>
+        <v>7416</v>
       </c>
       <c r="N18" t="s">
         <v>65</v>
@@ -1507,40 +1505,40 @@
         <v>118</v>
       </c>
       <c r="B19">
-        <v>31709</v>
+        <v>58698</v>
       </c>
       <c r="C19">
-        <v>32657</v>
+        <v>59926</v>
       </c>
       <c r="D19">
-        <v>33421</v>
+        <v>60973</v>
       </c>
       <c r="E19">
-        <v>34132</v>
+        <v>54343</v>
       </c>
       <c r="F19">
-        <v>34132</v>
+        <v>61943</v>
       </c>
       <c r="G19">
-        <v>35552</v>
+        <v>63896</v>
       </c>
       <c r="H19">
-        <v>36186</v>
+        <v>64857</v>
       </c>
       <c r="I19">
-        <v>36779</v>
+        <v>65793</v>
       </c>
       <c r="J19">
-        <v>37373</v>
+        <v>66758</v>
       </c>
       <c r="K19">
-        <v>37918</v>
+        <v>67747</v>
       </c>
       <c r="L19">
-        <v>38428</v>
+        <v>68726</v>
       </c>
       <c r="M19">
-        <v>38905</v>
+        <v>69609</v>
       </c>
       <c r="N19" t="s">
         <v>65</v>
@@ -1554,40 +1552,40 @@
         <v>119</v>
       </c>
       <c r="B20">
-        <v>65422</v>
+        <v>121106</v>
       </c>
       <c r="C20">
-        <v>67379</v>
+        <v>123641</v>
       </c>
       <c r="D20">
-        <v>68956</v>
+        <v>125800</v>
       </c>
       <c r="E20">
-        <v>70422</v>
+        <v>112123</v>
       </c>
       <c r="F20">
-        <v>70422</v>
+        <v>127800</v>
       </c>
       <c r="G20">
-        <v>73352</v>
+        <v>131830</v>
       </c>
       <c r="H20">
-        <v>74659</v>
+        <v>133813</v>
       </c>
       <c r="I20">
-        <v>75883</v>
+        <v>135744</v>
       </c>
       <c r="J20">
-        <v>77110</v>
+        <v>137736</v>
       </c>
       <c r="K20">
-        <v>78233</v>
+        <v>139777</v>
       </c>
       <c r="L20">
-        <v>79285</v>
+        <v>141796</v>
       </c>
       <c r="M20">
-        <v>80269</v>
+        <v>143617</v>
       </c>
       <c r="N20" t="s">
         <v>65</v>
@@ -1601,40 +1599,40 @@
         <v>120</v>
       </c>
       <c r="B21">
-        <v>5933</v>
+        <v>10982</v>
       </c>
       <c r="C21">
-        <v>6110</v>
+        <v>11212</v>
       </c>
       <c r="D21">
-        <v>6253</v>
+        <v>11408</v>
       </c>
       <c r="E21">
-        <v>6386</v>
+        <v>10167</v>
       </c>
       <c r="F21">
-        <v>6386</v>
+        <v>11589</v>
       </c>
       <c r="G21">
-        <v>6652</v>
+        <v>11955</v>
       </c>
       <c r="H21">
-        <v>6770</v>
+        <v>12135</v>
       </c>
       <c r="I21">
-        <v>6881</v>
+        <v>12310</v>
       </c>
       <c r="J21">
-        <v>6993</v>
+        <v>12490</v>
       </c>
       <c r="K21">
-        <v>7094</v>
+        <v>12675</v>
       </c>
       <c r="L21">
-        <v>7190</v>
+        <v>12858</v>
       </c>
       <c r="M21">
-        <v>7279</v>
+        <v>13024</v>
       </c>
       <c r="N21" t="s">
         <v>65</v>
@@ -1648,40 +1646,40 @@
         <v>201</v>
       </c>
       <c r="B22">
-        <v>123947</v>
+        <v>229445</v>
       </c>
       <c r="C22">
-        <v>127656</v>
+        <v>234247</v>
       </c>
       <c r="D22">
-        <v>130642</v>
+        <v>238338</v>
       </c>
       <c r="E22">
-        <v>133419</v>
+        <v>212423</v>
       </c>
       <c r="F22">
-        <v>133419</v>
+        <v>242128</v>
       </c>
       <c r="G22">
-        <v>138972</v>
+        <v>249762</v>
       </c>
       <c r="H22">
-        <v>141449</v>
+        <v>253520</v>
       </c>
       <c r="I22">
-        <v>143767</v>
+        <v>257177</v>
       </c>
       <c r="J22">
-        <v>146091</v>
+        <v>260952</v>
       </c>
       <c r="K22">
-        <v>148219</v>
+        <v>264818</v>
       </c>
       <c r="L22">
-        <v>150212</v>
+        <v>268643</v>
       </c>
       <c r="M22">
-        <v>152076</v>
+        <v>272095</v>
       </c>
       <c r="N22" t="s">
         <v>15</v>
@@ -1695,40 +1693,40 @@
         <v>202</v>
       </c>
       <c r="B23">
-        <v>39178</v>
+        <v>72524</v>
       </c>
       <c r="C23">
-        <v>40350</v>
+        <v>74042</v>
       </c>
       <c r="D23">
-        <v>41294</v>
+        <v>75335</v>
       </c>
       <c r="E23">
-        <v>42172</v>
+        <v>67144</v>
       </c>
       <c r="F23">
-        <v>42172</v>
+        <v>76533</v>
       </c>
       <c r="G23">
-        <v>43927</v>
+        <v>78946</v>
       </c>
       <c r="H23">
-        <v>44710</v>
+        <v>80134</v>
       </c>
       <c r="I23">
-        <v>45443</v>
+        <v>81290</v>
       </c>
       <c r="J23">
-        <v>46177</v>
+        <v>82483</v>
       </c>
       <c r="K23">
-        <v>46850</v>
+        <v>83705</v>
       </c>
       <c r="L23">
-        <v>47480</v>
+        <v>84914</v>
       </c>
       <c r="M23">
-        <v>48069</v>
+        <v>86005</v>
       </c>
       <c r="N23" t="s">
         <v>15</v>
@@ -1742,40 +1740,40 @@
         <v>203</v>
       </c>
       <c r="B24">
-        <v>37394</v>
+        <v>69223</v>
       </c>
       <c r="C24">
-        <v>38513</v>
+        <v>70672</v>
       </c>
       <c r="D24">
-        <v>39414</v>
+        <v>71906</v>
       </c>
       <c r="E24">
-        <v>40252</v>
+        <v>64087</v>
       </c>
       <c r="F24">
-        <v>40252</v>
+        <v>73050</v>
       </c>
       <c r="G24">
-        <v>41927</v>
+        <v>75353</v>
       </c>
       <c r="H24">
-        <v>42674</v>
+        <v>76486</v>
       </c>
       <c r="I24">
-        <v>43374</v>
+        <v>77590</v>
       </c>
       <c r="J24">
-        <v>44075</v>
+        <v>78729</v>
       </c>
       <c r="K24">
-        <v>44717</v>
+        <v>79895</v>
       </c>
       <c r="L24">
-        <v>45318</v>
+        <v>81049</v>
       </c>
       <c r="M24">
-        <v>45881</v>
+        <v>82090</v>
       </c>
       <c r="N24" t="s">
         <v>15</v>
@@ -1789,40 +1787,40 @@
         <v>204</v>
       </c>
       <c r="B25">
-        <v>2984</v>
+        <v>5524</v>
       </c>
       <c r="C25">
-        <v>3073</v>
+        <v>5639</v>
       </c>
       <c r="D25">
-        <v>3145</v>
+        <v>5738</v>
       </c>
       <c r="E25">
-        <v>3212</v>
+        <v>5114</v>
       </c>
       <c r="F25">
-        <v>3212</v>
+        <v>5829</v>
       </c>
       <c r="G25">
-        <v>3346</v>
+        <v>6013</v>
       </c>
       <c r="H25">
-        <v>3405</v>
+        <v>6103</v>
       </c>
       <c r="I25">
-        <v>3461</v>
+        <v>6191</v>
       </c>
       <c r="J25">
-        <v>3517</v>
+        <v>6282</v>
       </c>
       <c r="K25">
-        <v>3568</v>
+        <v>6375</v>
       </c>
       <c r="L25">
-        <v>3616</v>
+        <v>6467</v>
       </c>
       <c r="M25">
-        <v>3661</v>
+        <v>6550</v>
       </c>
       <c r="N25" t="s">
         <v>15</v>
@@ -1836,40 +1834,40 @@
         <v>205</v>
       </c>
       <c r="B26">
-        <v>12381</v>
+        <v>22919</v>
       </c>
       <c r="C26">
-        <v>12751</v>
+        <v>23399</v>
       </c>
       <c r="D26">
-        <v>13050</v>
+        <v>23808</v>
       </c>
       <c r="E26">
-        <v>13327</v>
+        <v>21219</v>
       </c>
       <c r="F26">
-        <v>13327</v>
+        <v>24186</v>
       </c>
       <c r="G26">
-        <v>13882</v>
+        <v>24949</v>
       </c>
       <c r="H26">
-        <v>14129</v>
+        <v>25324</v>
       </c>
       <c r="I26">
-        <v>14361</v>
+        <v>25690</v>
       </c>
       <c r="J26">
-        <v>14593</v>
+        <v>26067</v>
       </c>
       <c r="K26">
-        <v>14805</v>
+        <v>26453</v>
       </c>
       <c r="L26">
-        <v>15004</v>
+        <v>26835</v>
       </c>
       <c r="M26">
-        <v>15191</v>
+        <v>27180</v>
       </c>
       <c r="N26" t="s">
         <v>15</v>
@@ -1883,40 +1881,40 @@
         <v>206</v>
       </c>
       <c r="B27">
-        <v>20771</v>
+        <v>38449</v>
       </c>
       <c r="C27">
-        <v>21392</v>
+        <v>39254</v>
       </c>
       <c r="D27">
-        <v>21893</v>
+        <v>39939</v>
       </c>
       <c r="E27">
-        <v>22358</v>
+        <v>35597</v>
       </c>
       <c r="F27">
-        <v>22358</v>
+        <v>40574</v>
       </c>
       <c r="G27">
-        <v>23288</v>
+        <v>41854</v>
       </c>
       <c r="H27">
-        <v>23704</v>
+        <v>42483</v>
       </c>
       <c r="I27">
-        <v>24092</v>
+        <v>43096</v>
       </c>
       <c r="J27">
-        <v>24481</v>
+        <v>43729</v>
       </c>
       <c r="K27">
-        <v>24838</v>
+        <v>44377</v>
       </c>
       <c r="L27">
-        <v>25172</v>
+        <v>45018</v>
       </c>
       <c r="M27">
-        <v>25484</v>
+        <v>45596</v>
       </c>
       <c r="N27" t="s">
         <v>15</v>
@@ -1930,40 +1928,40 @@
         <v>207</v>
       </c>
       <c r="B28">
-        <v>16882</v>
+        <v>31251</v>
       </c>
       <c r="C28">
-        <v>17387</v>
+        <v>31905</v>
       </c>
       <c r="D28">
-        <v>17794</v>
+        <v>32462</v>
       </c>
       <c r="E28">
-        <v>18172</v>
+        <v>28933</v>
       </c>
       <c r="F28">
-        <v>18172</v>
+        <v>32978</v>
       </c>
       <c r="G28">
-        <v>18928</v>
+        <v>34018</v>
       </c>
       <c r="H28">
-        <v>19266</v>
+        <v>34530</v>
       </c>
       <c r="I28">
-        <v>19581</v>
+        <v>35028</v>
       </c>
       <c r="J28">
-        <v>19898</v>
+        <v>35542</v>
       </c>
       <c r="K28">
-        <v>20188</v>
+        <v>36069</v>
       </c>
       <c r="L28">
-        <v>20459</v>
+        <v>36590</v>
       </c>
       <c r="M28">
-        <v>20713</v>
+        <v>37060</v>
       </c>
       <c r="N28" t="s">
         <v>15</v>
@@ -1977,40 +1975,40 @@
         <v>208</v>
       </c>
       <c r="B29">
-        <v>14199</v>
+        <v>26284</v>
       </c>
       <c r="C29">
-        <v>14624</v>
+        <v>26834</v>
       </c>
       <c r="D29">
-        <v>14966</v>
+        <v>27303</v>
       </c>
       <c r="E29">
-        <v>15284</v>
+        <v>24334</v>
       </c>
       <c r="F29">
-        <v>15284</v>
+        <v>27737</v>
       </c>
       <c r="G29">
-        <v>15920</v>
+        <v>28611</v>
       </c>
       <c r="H29">
-        <v>16204</v>
+        <v>29042</v>
       </c>
       <c r="I29">
-        <v>16470</v>
+        <v>29461</v>
       </c>
       <c r="J29">
-        <v>16736</v>
+        <v>29893</v>
       </c>
       <c r="K29">
-        <v>16979</v>
+        <v>30336</v>
       </c>
       <c r="L29">
-        <v>17208</v>
+        <v>30774</v>
       </c>
       <c r="M29">
-        <v>17421</v>
+        <v>31170</v>
       </c>
       <c r="N29" t="s">
         <v>15</v>
@@ -2024,40 +2022,40 @@
         <v>209</v>
       </c>
       <c r="B30">
-        <v>9891</v>
+        <v>18310</v>
       </c>
       <c r="C30">
-        <v>10187</v>
+        <v>18693</v>
       </c>
       <c r="D30">
-        <v>10426</v>
+        <v>19020</v>
       </c>
       <c r="E30">
-        <v>10647</v>
+        <v>16952</v>
       </c>
       <c r="F30">
-        <v>10647</v>
+        <v>19322</v>
       </c>
       <c r="G30">
-        <v>11091</v>
+        <v>19932</v>
       </c>
       <c r="H30">
-        <v>11288</v>
+        <v>20231</v>
       </c>
       <c r="I30">
-        <v>11473</v>
+        <v>20523</v>
       </c>
       <c r="J30">
-        <v>11659</v>
+        <v>20825</v>
       </c>
       <c r="K30">
-        <v>11828</v>
+        <v>21133</v>
       </c>
       <c r="L30">
-        <v>11988</v>
+        <v>21438</v>
       </c>
       <c r="M30">
-        <v>12136</v>
+        <v>21714</v>
       </c>
       <c r="N30" t="s">
         <v>15</v>
@@ -2071,40 +2069,40 @@
         <v>210</v>
       </c>
       <c r="B31">
-        <v>79627</v>
+        <v>147400</v>
       </c>
       <c r="C31">
-        <v>82009</v>
+        <v>150485</v>
       </c>
       <c r="D31">
-        <v>83928</v>
+        <v>153113</v>
       </c>
       <c r="E31">
-        <v>85712</v>
+        <v>136467</v>
       </c>
       <c r="F31">
-        <v>85712</v>
+        <v>155548</v>
       </c>
       <c r="G31">
-        <v>89279</v>
+        <v>160453</v>
       </c>
       <c r="H31">
-        <v>90870</v>
+        <v>162867</v>
       </c>
       <c r="I31">
-        <v>92359</v>
+        <v>165216</v>
       </c>
       <c r="J31">
-        <v>93852</v>
+        <v>167641</v>
       </c>
       <c r="K31">
-        <v>95219</v>
+        <v>170125</v>
       </c>
       <c r="L31">
-        <v>96500</v>
+        <v>172582</v>
       </c>
       <c r="M31">
-        <v>97697</v>
+        <v>174800</v>
       </c>
       <c r="N31" t="s">
         <v>15</v>
@@ -2118,40 +2116,40 @@
         <v>211</v>
       </c>
       <c r="B32">
-        <v>5935</v>
+        <v>10987</v>
       </c>
       <c r="C32">
-        <v>6113</v>
+        <v>11217</v>
       </c>
       <c r="D32">
-        <v>6256</v>
+        <v>11413</v>
       </c>
       <c r="E32">
-        <v>6389</v>
+        <v>10172</v>
       </c>
       <c r="F32">
-        <v>6389</v>
+        <v>11594</v>
       </c>
       <c r="G32">
-        <v>6655</v>
+        <v>11960</v>
       </c>
       <c r="H32">
-        <v>6773</v>
+        <v>12140</v>
       </c>
       <c r="I32">
-        <v>6884</v>
+        <v>12315</v>
       </c>
       <c r="J32">
-        <v>6995</v>
+        <v>12495</v>
       </c>
       <c r="K32">
-        <v>7097</v>
+        <v>12681</v>
       </c>
       <c r="L32">
-        <v>7193</v>
+        <v>12864</v>
       </c>
       <c r="M32">
-        <v>7282</v>
+        <v>13029</v>
       </c>
       <c r="N32" t="s">
         <v>15</v>
@@ -2165,40 +2163,40 @@
         <v>212</v>
       </c>
       <c r="B33">
-        <v>8794</v>
+        <v>16279</v>
       </c>
       <c r="C33">
-        <v>9058</v>
+        <v>16620</v>
       </c>
       <c r="D33">
-        <v>9270</v>
+        <v>16910</v>
       </c>
       <c r="E33">
-        <v>9467</v>
+        <v>15073</v>
       </c>
       <c r="F33">
-        <v>9467</v>
+        <v>17179</v>
       </c>
       <c r="G33">
-        <v>9861</v>
+        <v>17721</v>
       </c>
       <c r="H33">
-        <v>10036</v>
+        <v>17988</v>
       </c>
       <c r="I33">
-        <v>10201</v>
+        <v>18247</v>
       </c>
       <c r="J33">
-        <v>10366</v>
+        <v>18515</v>
       </c>
       <c r="K33">
-        <v>10517</v>
+        <v>18789</v>
       </c>
       <c r="L33">
-        <v>10658</v>
+        <v>19061</v>
       </c>
       <c r="M33">
-        <v>10790</v>
+        <v>19305</v>
       </c>
       <c r="N33" t="s">
         <v>15</v>
@@ -2212,40 +2210,40 @@
         <v>213</v>
       </c>
       <c r="B34">
-        <v>21374</v>
+        <v>39565</v>
       </c>
       <c r="C34">
-        <v>22013</v>
+        <v>40394</v>
       </c>
       <c r="D34">
-        <v>22528</v>
+        <v>41099</v>
       </c>
       <c r="E34">
-        <v>23007</v>
+        <v>36631</v>
       </c>
       <c r="F34">
-        <v>23007</v>
+        <v>41753</v>
       </c>
       <c r="G34">
-        <v>23965</v>
+        <v>43069</v>
       </c>
       <c r="H34">
-        <v>24392</v>
+        <v>43717</v>
       </c>
       <c r="I34">
-        <v>24791</v>
+        <v>44348</v>
       </c>
       <c r="J34">
-        <v>25192</v>
+        <v>44999</v>
       </c>
       <c r="K34">
-        <v>25559</v>
+        <v>45665</v>
       </c>
       <c r="L34">
-        <v>25903</v>
+        <v>46325</v>
       </c>
       <c r="M34">
-        <v>26224</v>
+        <v>46920</v>
       </c>
       <c r="N34" t="s">
         <v>15</v>
@@ -2259,40 +2257,40 @@
         <v>214</v>
       </c>
       <c r="B35">
-        <v>11542</v>
+        <v>21365</v>
       </c>
       <c r="C35">
-        <v>11887</v>
+        <v>21813</v>
       </c>
       <c r="D35">
-        <v>12165</v>
+        <v>22193</v>
       </c>
       <c r="E35">
-        <v>12424</v>
+        <v>19781</v>
       </c>
       <c r="F35">
-        <v>12424</v>
+        <v>22546</v>
       </c>
       <c r="G35">
-        <v>12941</v>
+        <v>23257</v>
       </c>
       <c r="H35">
-        <v>13172</v>
+        <v>23607</v>
       </c>
       <c r="I35">
-        <v>13388</v>
+        <v>23948</v>
       </c>
       <c r="J35">
-        <v>13604</v>
+        <v>24299</v>
       </c>
       <c r="K35">
-        <v>13802</v>
+        <v>24659</v>
       </c>
       <c r="L35">
-        <v>13988</v>
+        <v>25015</v>
       </c>
       <c r="M35">
-        <v>14161</v>
+        <v>25337</v>
       </c>
       <c r="N35" t="s">
         <v>15</v>
@@ -2306,40 +2304,40 @@
         <v>215</v>
       </c>
       <c r="B36">
-        <v>7541</v>
+        <v>13960</v>
       </c>
       <c r="C36">
-        <v>7767</v>
+        <v>14253</v>
       </c>
       <c r="D36">
-        <v>7949</v>
+        <v>14502</v>
       </c>
       <c r="E36">
-        <v>8118</v>
+        <v>12925</v>
       </c>
       <c r="F36">
-        <v>8118</v>
+        <v>14732</v>
       </c>
       <c r="G36">
-        <v>8455</v>
+        <v>15197</v>
       </c>
       <c r="H36">
-        <v>8606</v>
+        <v>15425</v>
       </c>
       <c r="I36">
-        <v>8747</v>
+        <v>15648</v>
       </c>
       <c r="J36">
-        <v>8889</v>
+        <v>15878</v>
       </c>
       <c r="K36">
-        <v>9018</v>
+        <v>16113</v>
       </c>
       <c r="L36">
-        <v>9139</v>
+        <v>16345</v>
       </c>
       <c r="M36">
-        <v>9253</v>
+        <v>16555</v>
       </c>
       <c r="N36" t="s">
         <v>15</v>
@@ -2353,40 +2351,40 @@
         <v>301</v>
       </c>
       <c r="B37">
-        <v>71920</v>
+        <v>133135</v>
       </c>
       <c r="C37">
-        <v>74072</v>
+        <v>135922</v>
       </c>
       <c r="D37">
-        <v>75805</v>
+        <v>138295</v>
       </c>
       <c r="E37">
-        <v>77417</v>
+        <v>123260</v>
       </c>
       <c r="F37">
-        <v>77417</v>
+        <v>140495</v>
       </c>
       <c r="G37">
-        <v>80639</v>
+        <v>144924</v>
       </c>
       <c r="H37">
-        <v>82076</v>
+        <v>147105</v>
       </c>
       <c r="I37">
-        <v>83421</v>
+        <v>149227</v>
       </c>
       <c r="J37">
-        <v>84769</v>
+        <v>151417</v>
       </c>
       <c r="K37">
-        <v>86004</v>
+        <v>153660</v>
       </c>
       <c r="L37">
-        <v>87161</v>
+        <v>155880</v>
       </c>
       <c r="M37">
-        <v>88242</v>
+        <v>157883</v>
       </c>
       <c r="N37" t="s">
         <v>27</v>
@@ -2400,40 +2398,40 @@
         <v>302</v>
       </c>
       <c r="B38">
-        <v>28079</v>
+        <v>51979</v>
       </c>
       <c r="C38">
-        <v>28920</v>
+        <v>53067</v>
       </c>
       <c r="D38">
-        <v>29596</v>
+        <v>53994</v>
       </c>
       <c r="E38">
-        <v>30225</v>
+        <v>48123</v>
       </c>
       <c r="F38">
-        <v>30225</v>
+        <v>54853</v>
       </c>
       <c r="G38">
-        <v>31483</v>
+        <v>56582</v>
       </c>
       <c r="H38">
-        <v>32044</v>
+        <v>57433</v>
       </c>
       <c r="I38">
-        <v>32570</v>
+        <v>58262</v>
       </c>
       <c r="J38">
-        <v>33096</v>
+        <v>59117</v>
       </c>
       <c r="K38">
-        <v>33578</v>
+        <v>59993</v>
       </c>
       <c r="L38">
-        <v>34030</v>
+        <v>60860</v>
       </c>
       <c r="M38">
-        <v>34452</v>
+        <v>61642</v>
       </c>
       <c r="N38" t="s">
         <v>27</v>
@@ -2447,40 +2445,40 @@
         <v>303</v>
       </c>
       <c r="B39">
-        <v>48336</v>
+        <v>89478</v>
       </c>
       <c r="C39">
-        <v>49782</v>
+        <v>91351</v>
       </c>
       <c r="D39">
-        <v>50947</v>
+        <v>92946</v>
       </c>
       <c r="E39">
-        <v>52030</v>
+        <v>82840</v>
       </c>
       <c r="F39">
-        <v>52030</v>
+        <v>94424</v>
       </c>
       <c r="G39">
-        <v>54196</v>
+        <v>97401</v>
       </c>
       <c r="H39">
-        <v>55161</v>
+        <v>98867</v>
       </c>
       <c r="I39">
-        <v>56065</v>
+        <v>100293</v>
       </c>
       <c r="J39">
-        <v>56972</v>
+        <v>101765</v>
       </c>
       <c r="K39">
-        <v>57801</v>
+        <v>103273</v>
       </c>
       <c r="L39">
-        <v>58579</v>
+        <v>104764</v>
       </c>
       <c r="M39">
-        <v>59306</v>
+        <v>106110</v>
       </c>
       <c r="N39" t="s">
         <v>27</v>
@@ -2494,40 +2492,40 @@
         <v>304</v>
       </c>
       <c r="B40">
-        <v>7133</v>
+        <v>13205</v>
       </c>
       <c r="C40">
-        <v>7347</v>
+        <v>13481</v>
       </c>
       <c r="D40">
-        <v>7519</v>
+        <v>13716</v>
       </c>
       <c r="E40">
-        <v>7678</v>
+        <v>12225</v>
       </c>
       <c r="F40">
-        <v>7678</v>
+        <v>13935</v>
       </c>
       <c r="G40">
-        <v>7998</v>
+        <v>14374</v>
       </c>
       <c r="H40">
-        <v>8141</v>
+        <v>14590</v>
       </c>
       <c r="I40">
-        <v>8274</v>
+        <v>14801</v>
       </c>
       <c r="J40">
-        <v>8408</v>
+        <v>15018</v>
       </c>
       <c r="K40">
-        <v>8530</v>
+        <v>15240</v>
       </c>
       <c r="L40">
-        <v>8645</v>
+        <v>15460</v>
       </c>
       <c r="M40">
-        <v>8752</v>
+        <v>15659</v>
       </c>
       <c r="N40" t="s">
         <v>27</v>
@@ -2541,40 +2539,40 @@
         <v>305</v>
       </c>
       <c r="B41">
-        <v>33853</v>
+        <v>62667</v>
       </c>
       <c r="C41">
-        <v>34866</v>
+        <v>63979</v>
       </c>
       <c r="D41">
-        <v>35682</v>
+        <v>65096</v>
       </c>
       <c r="E41">
-        <v>36440</v>
+        <v>58018</v>
       </c>
       <c r="F41">
-        <v>36440</v>
+        <v>66132</v>
       </c>
       <c r="G41">
-        <v>37957</v>
+        <v>68217</v>
       </c>
       <c r="H41">
-        <v>38633</v>
+        <v>69243</v>
       </c>
       <c r="I41">
-        <v>39267</v>
+        <v>70242</v>
       </c>
       <c r="J41">
-        <v>39901</v>
+        <v>71273</v>
       </c>
       <c r="K41">
-        <v>40482</v>
+        <v>72329</v>
       </c>
       <c r="L41">
-        <v>41027</v>
+        <v>73374</v>
       </c>
       <c r="M41">
-        <v>41536</v>
+        <v>74316</v>
       </c>
       <c r="N41" t="s">
         <v>27</v>
@@ -2588,40 +2586,40 @@
         <v>306</v>
       </c>
       <c r="B42">
-        <v>6960</v>
+        <v>12883</v>
       </c>
       <c r="C42">
-        <v>7168</v>
+        <v>13153</v>
       </c>
       <c r="D42">
-        <v>7336</v>
+        <v>13383</v>
       </c>
       <c r="E42">
-        <v>7492</v>
+        <v>11928</v>
       </c>
       <c r="F42">
-        <v>7492</v>
+        <v>13595</v>
       </c>
       <c r="G42">
-        <v>7803</v>
+        <v>14024</v>
       </c>
       <c r="H42">
-        <v>7942</v>
+        <v>14235</v>
       </c>
       <c r="I42">
-        <v>8073</v>
+        <v>14440</v>
       </c>
       <c r="J42">
-        <v>8203</v>
+        <v>14652</v>
       </c>
       <c r="K42">
-        <v>8323</v>
+        <v>14869</v>
       </c>
       <c r="L42">
-        <v>8434</v>
+        <v>15084</v>
       </c>
       <c r="M42">
-        <v>8539</v>
+        <v>15278</v>
       </c>
       <c r="N42" t="s">
         <v>27</v>
@@ -2635,40 +2633,40 @@
         <v>307</v>
       </c>
       <c r="B43">
-        <v>22113</v>
+        <v>40934</v>
       </c>
       <c r="C43">
-        <v>22774</v>
+        <v>41791</v>
       </c>
       <c r="D43">
-        <v>23307</v>
+        <v>42520</v>
       </c>
       <c r="E43">
-        <v>23803</v>
+        <v>37898</v>
       </c>
       <c r="F43">
-        <v>23803</v>
+        <v>43197</v>
       </c>
       <c r="G43">
-        <v>24793</v>
+        <v>44559</v>
       </c>
       <c r="H43">
-        <v>25235</v>
+        <v>45229</v>
       </c>
       <c r="I43">
-        <v>25649</v>
+        <v>45882</v>
       </c>
       <c r="J43">
-        <v>26063</v>
+        <v>46555</v>
       </c>
       <c r="K43">
-        <v>26443</v>
+        <v>47245</v>
       </c>
       <c r="L43">
-        <v>26799</v>
+        <v>47927</v>
       </c>
       <c r="M43">
-        <v>27131</v>
+        <v>48543</v>
       </c>
       <c r="N43" t="s">
         <v>27</v>
@@ -2682,40 +2680,40 @@
         <v>308</v>
       </c>
       <c r="B44">
-        <v>20323</v>
+        <v>37622</v>
       </c>
       <c r="C44">
-        <v>20931</v>
+        <v>38410</v>
       </c>
       <c r="D44">
-        <v>21421</v>
+        <v>39080</v>
       </c>
       <c r="E44">
-        <v>21876</v>
+        <v>34830</v>
       </c>
       <c r="F44">
-        <v>21876</v>
+        <v>39702</v>
       </c>
       <c r="G44">
-        <v>22787</v>
+        <v>40954</v>
       </c>
       <c r="H44">
-        <v>23193</v>
+        <v>41570</v>
       </c>
       <c r="I44">
-        <v>23573</v>
+        <v>42170</v>
       </c>
       <c r="J44">
-        <v>23954</v>
+        <v>42788</v>
       </c>
       <c r="K44">
-        <v>24303</v>
+        <v>43422</v>
       </c>
       <c r="L44">
-        <v>24630</v>
+        <v>44050</v>
       </c>
       <c r="M44">
-        <v>24936</v>
+        <v>44616</v>
       </c>
       <c r="N44" t="s">
         <v>27</v>
@@ -2729,40 +2727,40 @@
         <v>401</v>
       </c>
       <c r="B45">
-        <v>60112</v>
+        <v>111278</v>
       </c>
       <c r="C45">
-        <v>61911</v>
+        <v>113607</v>
       </c>
       <c r="D45">
-        <v>63360</v>
+        <v>115591</v>
       </c>
       <c r="E45">
-        <v>64707</v>
+        <v>103023</v>
       </c>
       <c r="F45">
-        <v>64707</v>
+        <v>117429</v>
       </c>
       <c r="G45">
-        <v>67399</v>
+        <v>121132</v>
       </c>
       <c r="H45">
-        <v>68601</v>
+        <v>122954</v>
       </c>
       <c r="I45">
-        <v>69725</v>
+        <v>124728</v>
       </c>
       <c r="J45">
-        <v>70852</v>
+        <v>126558</v>
       </c>
       <c r="K45">
-        <v>71884</v>
+        <v>128433</v>
       </c>
       <c r="L45">
-        <v>72851</v>
+        <v>130289</v>
       </c>
       <c r="M45">
-        <v>73755</v>
+        <v>131963</v>
       </c>
       <c r="N45" t="s">
         <v>43</v>
@@ -2776,40 +2774,40 @@
         <v>402</v>
       </c>
       <c r="B46">
-        <v>19772</v>
+        <v>36602</v>
       </c>
       <c r="C46">
-        <v>20364</v>
+        <v>37368</v>
       </c>
       <c r="D46">
-        <v>20840</v>
+        <v>38021</v>
       </c>
       <c r="E46">
-        <v>21283</v>
+        <v>33886</v>
       </c>
       <c r="F46">
-        <v>21283</v>
+        <v>38626</v>
       </c>
       <c r="G46">
-        <v>22169</v>
+        <v>39843</v>
       </c>
       <c r="H46">
-        <v>22564</v>
+        <v>40443</v>
       </c>
       <c r="I46">
-        <v>22934</v>
+        <v>41026</v>
       </c>
       <c r="J46">
-        <v>23305</v>
+        <v>41628</v>
       </c>
       <c r="K46">
-        <v>23644</v>
+        <v>42245</v>
       </c>
       <c r="L46">
-        <v>23962</v>
+        <v>42855</v>
       </c>
       <c r="M46">
-        <v>24260</v>
+        <v>43406</v>
       </c>
       <c r="N46" t="s">
         <v>43</v>
@@ -2823,40 +2821,40 @@
         <v>403</v>
       </c>
       <c r="B47">
-        <v>19486</v>
+        <v>36073</v>
       </c>
       <c r="C47">
-        <v>20069</v>
+        <v>36828</v>
       </c>
       <c r="D47">
-        <v>20539</v>
+        <v>37471</v>
       </c>
       <c r="E47">
-        <v>20976</v>
+        <v>33397</v>
       </c>
       <c r="F47">
-        <v>20976</v>
+        <v>38067</v>
       </c>
       <c r="G47">
-        <v>21849</v>
+        <v>39267</v>
       </c>
       <c r="H47">
-        <v>22238</v>
+        <v>39858</v>
       </c>
       <c r="I47">
-        <v>22602</v>
+        <v>40433</v>
       </c>
       <c r="J47">
-        <v>22968</v>
+        <v>41026</v>
       </c>
       <c r="K47">
-        <v>23302</v>
+        <v>41634</v>
       </c>
       <c r="L47">
-        <v>23616</v>
+        <v>42235</v>
       </c>
       <c r="M47">
-        <v>23909</v>
+        <v>42778</v>
       </c>
       <c r="N47" t="s">
         <v>43</v>
@@ -2870,40 +2868,40 @@
         <v>404</v>
       </c>
       <c r="B48">
-        <v>17624</v>
+        <v>32625</v>
       </c>
       <c r="C48">
-        <v>18152</v>
+        <v>33308</v>
       </c>
       <c r="D48">
-        <v>18576</v>
+        <v>33890</v>
       </c>
       <c r="E48">
-        <v>18971</v>
+        <v>30205</v>
       </c>
       <c r="F48">
-        <v>18971</v>
+        <v>34429</v>
       </c>
       <c r="G48">
-        <v>19761</v>
+        <v>35514</v>
       </c>
       <c r="H48">
-        <v>20113</v>
+        <v>36048</v>
       </c>
       <c r="I48">
-        <v>20443</v>
+        <v>36569</v>
       </c>
       <c r="J48">
-        <v>20773</v>
+        <v>37105</v>
       </c>
       <c r="K48">
-        <v>21076</v>
+        <v>37655</v>
       </c>
       <c r="L48">
-        <v>21359</v>
+        <v>38199</v>
       </c>
       <c r="M48">
-        <v>21624</v>
+        <v>38690</v>
       </c>
       <c r="N48" t="s">
         <v>43</v>
@@ -2917,40 +2915,40 @@
         <v>405</v>
       </c>
       <c r="B49">
-        <v>22352</v>
+        <v>41377</v>
       </c>
       <c r="C49">
-        <v>23021</v>
+        <v>42243</v>
       </c>
       <c r="D49">
-        <v>23559</v>
+        <v>42981</v>
       </c>
       <c r="E49">
-        <v>24060</v>
+        <v>38307</v>
       </c>
       <c r="F49">
-        <v>24060</v>
+        <v>43665</v>
       </c>
       <c r="G49">
-        <v>25062</v>
+        <v>45042</v>
       </c>
       <c r="H49">
-        <v>25508</v>
+        <v>45719</v>
       </c>
       <c r="I49">
-        <v>25926</v>
+        <v>46379</v>
       </c>
       <c r="J49">
-        <v>26345</v>
+        <v>47059</v>
       </c>
       <c r="K49">
-        <v>26729</v>
+        <v>47757</v>
       </c>
       <c r="L49">
-        <v>27089</v>
+        <v>48446</v>
       </c>
       <c r="M49">
-        <v>27425</v>
+        <v>49069</v>
       </c>
       <c r="N49" t="s">
         <v>43</v>
@@ -2964,40 +2962,40 @@
         <v>406</v>
       </c>
       <c r="B50">
-        <v>10033</v>
+        <v>18574</v>
       </c>
       <c r="C50">
-        <v>10334</v>
+        <v>18963</v>
       </c>
       <c r="D50">
-        <v>10575</v>
+        <v>19294</v>
       </c>
       <c r="E50">
-        <v>10800</v>
+        <v>17195</v>
       </c>
       <c r="F50">
-        <v>10800</v>
+        <v>19601</v>
       </c>
       <c r="G50">
-        <v>11250</v>
+        <v>20219</v>
       </c>
       <c r="H50">
-        <v>11450</v>
+        <v>20523</v>
       </c>
       <c r="I50">
-        <v>11638</v>
+        <v>20819</v>
       </c>
       <c r="J50">
-        <v>11826</v>
+        <v>21125</v>
       </c>
       <c r="K50">
-        <v>11998</v>
+        <v>21438</v>
       </c>
       <c r="L50">
-        <v>12160</v>
+        <v>21747</v>
       </c>
       <c r="M50">
-        <v>12311</v>
+        <v>22027</v>
       </c>
       <c r="N50" t="s">
         <v>43</v>
@@ -3011,40 +3009,40 @@
         <v>407</v>
       </c>
       <c r="B51">
-        <v>10520</v>
+        <v>19473</v>
       </c>
       <c r="C51">
-        <v>10835</v>
+        <v>19881</v>
       </c>
       <c r="D51">
-        <v>11088</v>
+        <v>20228</v>
       </c>
       <c r="E51">
-        <v>11324</v>
+        <v>18030</v>
       </c>
       <c r="F51">
-        <v>11324</v>
+        <v>20550</v>
       </c>
       <c r="G51">
-        <v>11795</v>
+        <v>21198</v>
       </c>
       <c r="H51">
-        <v>12005</v>
+        <v>21517</v>
       </c>
       <c r="I51">
-        <v>12202</v>
+        <v>21827</v>
       </c>
       <c r="J51">
-        <v>12399</v>
+        <v>22148</v>
       </c>
       <c r="K51">
-        <v>12580</v>
+        <v>22476</v>
       </c>
       <c r="L51">
-        <v>12749</v>
+        <v>22800</v>
       </c>
       <c r="M51">
-        <v>12907</v>
+        <v>23093</v>
       </c>
       <c r="N51" t="s">
         <v>43</v>
@@ -3058,40 +3056,40 @@
         <v>408</v>
       </c>
       <c r="B52">
-        <v>9744</v>
+        <v>18037</v>
       </c>
       <c r="C52">
-        <v>10035</v>
+        <v>18415</v>
       </c>
       <c r="D52">
-        <v>10270</v>
+        <v>18736</v>
       </c>
       <c r="E52">
-        <v>10488</v>
+        <v>16698</v>
       </c>
       <c r="F52">
-        <v>10488</v>
+        <v>19034</v>
       </c>
       <c r="G52">
-        <v>10925</v>
+        <v>19634</v>
       </c>
       <c r="H52">
-        <v>11120</v>
+        <v>19930</v>
       </c>
       <c r="I52">
-        <v>11302</v>
+        <v>20217</v>
       </c>
       <c r="J52">
-        <v>11484</v>
+        <v>20514</v>
       </c>
       <c r="K52">
-        <v>11652</v>
+        <v>20818</v>
       </c>
       <c r="L52">
-        <v>11808</v>
+        <v>21119</v>
       </c>
       <c r="M52">
-        <v>11955</v>
+        <v>21390</v>
       </c>
       <c r="N52" t="s">
         <v>43</v>
@@ -3105,40 +3103,40 @@
         <v>409</v>
       </c>
       <c r="B53">
-        <v>13456</v>
+        <v>24909</v>
       </c>
       <c r="C53">
-        <v>13859</v>
+        <v>25431</v>
       </c>
       <c r="D53">
-        <v>14183</v>
+        <v>25875</v>
       </c>
       <c r="E53">
-        <v>14484</v>
+        <v>23061</v>
       </c>
       <c r="F53">
-        <v>14484</v>
+        <v>26286</v>
       </c>
       <c r="G53">
-        <v>15087</v>
+        <v>27115</v>
       </c>
       <c r="H53">
-        <v>15356</v>
+        <v>27523</v>
       </c>
       <c r="I53">
-        <v>15608</v>
+        <v>27920</v>
       </c>
       <c r="J53">
-        <v>15860</v>
+        <v>28330</v>
       </c>
       <c r="K53">
-        <v>16091</v>
+        <v>28750</v>
       </c>
       <c r="L53">
-        <v>16307</v>
+        <v>29165</v>
       </c>
       <c r="M53">
-        <v>16510</v>
+        <v>29540</v>
       </c>
       <c r="N53" t="s">
         <v>43</v>
@@ -3152,40 +3150,40 @@
         <v>410</v>
       </c>
       <c r="B54">
-        <v>27790</v>
+        <v>51442</v>
       </c>
       <c r="C54">
-        <v>28621</v>
+        <v>52519</v>
       </c>
       <c r="D54">
-        <v>29291</v>
+        <v>53436</v>
       </c>
       <c r="E54">
-        <v>29913</v>
+        <v>47626</v>
       </c>
       <c r="F54">
-        <v>29913</v>
+        <v>54286</v>
       </c>
       <c r="G54">
-        <v>31158</v>
+        <v>55998</v>
       </c>
       <c r="H54">
-        <v>31714</v>
+        <v>56840</v>
       </c>
       <c r="I54">
-        <v>32233</v>
+        <v>57660</v>
       </c>
       <c r="J54">
-        <v>32754</v>
+        <v>58506</v>
       </c>
       <c r="K54">
-        <v>33232</v>
+        <v>59373</v>
       </c>
       <c r="L54">
-        <v>33678</v>
+        <v>60231</v>
       </c>
       <c r="M54">
-        <v>34096</v>
+        <v>61005</v>
       </c>
       <c r="N54" t="s">
         <v>43</v>
@@ -3199,40 +3197,40 @@
         <v>501</v>
       </c>
       <c r="B55">
-        <v>30630</v>
+        <v>56700</v>
       </c>
       <c r="C55">
-        <v>31546</v>
+        <v>57887</v>
       </c>
       <c r="D55">
-        <v>32284</v>
+        <v>58898</v>
       </c>
       <c r="E55">
-        <v>32970</v>
+        <v>52493</v>
       </c>
       <c r="F55">
-        <v>32970</v>
+        <v>59835</v>
       </c>
       <c r="G55">
-        <v>34343</v>
+        <v>61721</v>
       </c>
       <c r="H55">
-        <v>34955</v>
+        <v>62650</v>
       </c>
       <c r="I55">
-        <v>35527</v>
+        <v>63554</v>
       </c>
       <c r="J55">
-        <v>36102</v>
+        <v>64486</v>
       </c>
       <c r="K55">
-        <v>36628</v>
+        <v>65442</v>
       </c>
       <c r="L55">
-        <v>37120</v>
+        <v>66387</v>
       </c>
       <c r="M55">
-        <v>37581</v>
+        <v>67240</v>
       </c>
       <c r="N55" t="s">
         <v>32</v>
@@ -3246,40 +3244,40 @@
         <v>502</v>
       </c>
       <c r="B56">
-        <v>24715</v>
+        <v>45751</v>
       </c>
       <c r="C56">
-        <v>25455</v>
+        <v>46709</v>
       </c>
       <c r="D56">
-        <v>26050</v>
+        <v>47525</v>
       </c>
       <c r="E56">
-        <v>26604</v>
+        <v>42358</v>
       </c>
       <c r="F56">
-        <v>26604</v>
+        <v>48280</v>
       </c>
       <c r="G56">
-        <v>27711</v>
+        <v>49803</v>
       </c>
       <c r="H56">
-        <v>28205</v>
+        <v>50552</v>
       </c>
       <c r="I56">
-        <v>28668</v>
+        <v>51281</v>
       </c>
       <c r="J56">
-        <v>29131</v>
+        <v>52034</v>
       </c>
       <c r="K56">
-        <v>29555</v>
+        <v>52805</v>
       </c>
       <c r="L56">
-        <v>29953</v>
+        <v>53568</v>
       </c>
       <c r="M56">
-        <v>30324</v>
+        <v>54256</v>
       </c>
       <c r="N56" t="s">
         <v>32</v>
@@ -3293,40 +3291,40 @@
         <v>503</v>
       </c>
       <c r="B57">
-        <v>26796</v>
+        <v>49603</v>
       </c>
       <c r="C57">
-        <v>27598</v>
+        <v>50641</v>
       </c>
       <c r="D57">
-        <v>28244</v>
+        <v>51526</v>
       </c>
       <c r="E57">
-        <v>28844</v>
+        <v>45924</v>
       </c>
       <c r="F57">
-        <v>28844</v>
+        <v>52345</v>
       </c>
       <c r="G57">
-        <v>30044</v>
+        <v>53996</v>
       </c>
       <c r="H57">
-        <v>30580</v>
+        <v>54808</v>
       </c>
       <c r="I57">
-        <v>31081</v>
+        <v>55599</v>
       </c>
       <c r="J57">
-        <v>31583</v>
+        <v>56415</v>
       </c>
       <c r="K57">
-        <v>32043</v>
+        <v>57250</v>
       </c>
       <c r="L57">
-        <v>32474</v>
+        <v>58077</v>
       </c>
       <c r="M57">
-        <v>32877</v>
+        <v>58824</v>
       </c>
       <c r="N57" t="s">
         <v>32</v>
@@ -3340,40 +3338,40 @@
         <v>504</v>
       </c>
       <c r="B58">
-        <v>9500</v>
+        <v>17586</v>
       </c>
       <c r="C58">
-        <v>9784</v>
+        <v>17954</v>
       </c>
       <c r="D58">
-        <v>10013</v>
+        <v>18268</v>
       </c>
       <c r="E58">
-        <v>10226</v>
+        <v>16281</v>
       </c>
       <c r="F58">
-        <v>10226</v>
+        <v>18558</v>
       </c>
       <c r="G58">
-        <v>10652</v>
+        <v>19143</v>
       </c>
       <c r="H58">
-        <v>10841</v>
+        <v>19431</v>
       </c>
       <c r="I58">
-        <v>11019</v>
+        <v>19712</v>
       </c>
       <c r="J58">
-        <v>11197</v>
+        <v>20001</v>
       </c>
       <c r="K58">
-        <v>11360</v>
+        <v>20297</v>
       </c>
       <c r="L58">
-        <v>11513</v>
+        <v>20590</v>
       </c>
       <c r="M58">
-        <v>11656</v>
+        <v>20855</v>
       </c>
       <c r="N58" t="s">
         <v>32</v>
@@ -3387,40 +3385,40 @@
         <v>505</v>
       </c>
       <c r="B59">
-        <v>18052</v>
+        <v>33417</v>
       </c>
       <c r="C59">
-        <v>18592</v>
+        <v>34117</v>
       </c>
       <c r="D59">
-        <v>19027</v>
+        <v>34712</v>
       </c>
       <c r="E59">
-        <v>19431</v>
+        <v>30937</v>
       </c>
       <c r="F59">
-        <v>19431</v>
+        <v>35265</v>
       </c>
       <c r="G59">
-        <v>20240</v>
+        <v>36376</v>
       </c>
       <c r="H59">
-        <v>20601</v>
+        <v>36924</v>
       </c>
       <c r="I59">
-        <v>20938</v>
+        <v>37456</v>
       </c>
       <c r="J59">
-        <v>21277</v>
+        <v>38006</v>
       </c>
       <c r="K59">
-        <v>21587</v>
+        <v>38569</v>
       </c>
       <c r="L59">
-        <v>21877</v>
+        <v>39126</v>
       </c>
       <c r="M59">
-        <v>22149</v>
+        <v>39629</v>
       </c>
       <c r="N59" t="s">
         <v>32</v>
@@ -3434,40 +3432,40 @@
         <v>506</v>
       </c>
       <c r="B60">
-        <v>12741</v>
+        <v>23586</v>
       </c>
       <c r="C60">
-        <v>13122</v>
+        <v>24080</v>
       </c>
       <c r="D60">
-        <v>13429</v>
+        <v>24500</v>
       </c>
       <c r="E60">
-        <v>13715</v>
+        <v>21836</v>
       </c>
       <c r="F60">
-        <v>13715</v>
+        <v>24890</v>
       </c>
       <c r="G60">
-        <v>14286</v>
+        <v>25675</v>
       </c>
       <c r="H60">
-        <v>14540</v>
+        <v>26061</v>
       </c>
       <c r="I60">
-        <v>14779</v>
+        <v>26437</v>
       </c>
       <c r="J60">
-        <v>15017</v>
+        <v>26825</v>
       </c>
       <c r="K60">
-        <v>15236</v>
+        <v>27223</v>
       </c>
       <c r="L60">
-        <v>15441</v>
+        <v>27616</v>
       </c>
       <c r="M60">
-        <v>15633</v>
+        <v>27971</v>
       </c>
       <c r="N60" t="s">
         <v>32</v>
@@ -3481,40 +3479,40 @@
         <v>507</v>
       </c>
       <c r="B61">
-        <v>8772</v>
+        <v>16239</v>
       </c>
       <c r="C61">
-        <v>9035</v>
+        <v>16579</v>
       </c>
       <c r="D61">
-        <v>9246</v>
+        <v>16868</v>
       </c>
       <c r="E61">
-        <v>9442</v>
+        <v>15033</v>
       </c>
       <c r="F61">
-        <v>9442</v>
+        <v>17136</v>
       </c>
       <c r="G61">
-        <v>9835</v>
+        <v>17677</v>
       </c>
       <c r="H61">
-        <v>10011</v>
+        <v>17943</v>
       </c>
       <c r="I61">
-        <v>10175</v>
+        <v>18201</v>
       </c>
       <c r="J61">
-        <v>10339</v>
+        <v>18469</v>
       </c>
       <c r="K61">
-        <v>10490</v>
+        <v>18742</v>
       </c>
       <c r="L61">
-        <v>10631</v>
+        <v>19013</v>
       </c>
       <c r="M61">
-        <v>10763</v>
+        <v>19257</v>
       </c>
       <c r="N61" t="s">
         <v>32</v>
@@ -3528,40 +3526,40 @@
         <v>508</v>
       </c>
       <c r="B62">
-        <v>9551</v>
+        <v>17680</v>
       </c>
       <c r="C62">
-        <v>9836</v>
+        <v>18050</v>
       </c>
       <c r="D62">
-        <v>10067</v>
+        <v>18365</v>
       </c>
       <c r="E62">
-        <v>10281</v>
+        <v>16369</v>
       </c>
       <c r="F62">
-        <v>10281</v>
+        <v>18657</v>
       </c>
       <c r="G62">
-        <v>10708</v>
+        <v>19245</v>
       </c>
       <c r="H62">
-        <v>10899</v>
+        <v>19535</v>
       </c>
       <c r="I62">
-        <v>11078</v>
+        <v>19816</v>
       </c>
       <c r="J62">
-        <v>11257</v>
+        <v>20107</v>
       </c>
       <c r="K62">
-        <v>11421</v>
+        <v>20405</v>
       </c>
       <c r="L62">
-        <v>11574</v>
+        <v>20700</v>
       </c>
       <c r="M62">
-        <v>11718</v>
+        <v>20966</v>
       </c>
       <c r="N62" t="s">
         <v>32</v>
@@ -3575,40 +3573,40 @@
         <v>509</v>
       </c>
       <c r="B63">
-        <v>5408</v>
+        <v>10011</v>
       </c>
       <c r="C63">
-        <v>5570</v>
+        <v>10220</v>
       </c>
       <c r="D63">
-        <v>5700</v>
+        <v>10399</v>
       </c>
       <c r="E63">
-        <v>5821</v>
+        <v>9268</v>
       </c>
       <c r="F63">
-        <v>5821</v>
+        <v>10564</v>
       </c>
       <c r="G63">
-        <v>6064</v>
+        <v>10897</v>
       </c>
       <c r="H63">
-        <v>6172</v>
+        <v>11061</v>
       </c>
       <c r="I63">
-        <v>6273</v>
+        <v>11221</v>
       </c>
       <c r="J63">
-        <v>6374</v>
+        <v>11385</v>
       </c>
       <c r="K63">
-        <v>6467</v>
+        <v>11554</v>
       </c>
       <c r="L63">
-        <v>6554</v>
+        <v>11721</v>
       </c>
       <c r="M63">
-        <v>6635</v>
+        <v>11871</v>
       </c>
       <c r="N63" t="s">
         <v>32</v>
@@ -3622,40 +3620,40 @@
         <v>510</v>
       </c>
       <c r="B64">
-        <v>9327</v>
+        <v>17266</v>
       </c>
       <c r="C64">
-        <v>9606</v>
+        <v>17628</v>
       </c>
       <c r="D64">
-        <v>9831</v>
+        <v>17935</v>
       </c>
       <c r="E64">
-        <v>10040</v>
+        <v>15985</v>
       </c>
       <c r="F64">
-        <v>10040</v>
+        <v>18221</v>
       </c>
       <c r="G64">
-        <v>10458</v>
+        <v>18795</v>
       </c>
       <c r="H64">
-        <v>10644</v>
+        <v>19078</v>
       </c>
       <c r="I64">
-        <v>10819</v>
+        <v>19353</v>
       </c>
       <c r="J64">
-        <v>10994</v>
+        <v>19637</v>
       </c>
       <c r="K64">
-        <v>11154</v>
+        <v>19928</v>
       </c>
       <c r="L64">
-        <v>11304</v>
+        <v>20216</v>
       </c>
       <c r="M64">
-        <v>11444</v>
+        <v>20476</v>
       </c>
       <c r="N64" t="s">
         <v>32</v>
@@ -3669,40 +3667,40 @@
         <v>511</v>
       </c>
       <c r="B65">
-        <v>3500</v>
+        <v>6479</v>
       </c>
       <c r="C65">
-        <v>3605</v>
+        <v>6614</v>
       </c>
       <c r="D65">
-        <v>3689</v>
+        <v>6730</v>
       </c>
       <c r="E65">
-        <v>3767</v>
+        <v>5998</v>
       </c>
       <c r="F65">
-        <v>3767</v>
+        <v>6837</v>
       </c>
       <c r="G65">
-        <v>3924</v>
+        <v>7052</v>
       </c>
       <c r="H65">
-        <v>3994</v>
+        <v>7158</v>
       </c>
       <c r="I65">
-        <v>4059</v>
+        <v>7262</v>
       </c>
       <c r="J65">
-        <v>4125</v>
+        <v>7368</v>
       </c>
       <c r="K65">
-        <v>4185</v>
+        <v>7477</v>
       </c>
       <c r="L65">
-        <v>4241</v>
+        <v>7585</v>
       </c>
       <c r="M65">
-        <v>4294</v>
+        <v>7683</v>
       </c>
       <c r="N65" t="s">
         <v>32</v>
@@ -3716,40 +3714,40 @@
         <v>601</v>
       </c>
       <c r="B66">
-        <v>55932</v>
+        <v>103538</v>
       </c>
       <c r="C66">
-        <v>57605</v>
+        <v>105705</v>
       </c>
       <c r="D66">
-        <v>58953</v>
+        <v>107551</v>
       </c>
       <c r="E66">
-        <v>60206</v>
+        <v>95857</v>
       </c>
       <c r="F66">
-        <v>60206</v>
+        <v>109261</v>
       </c>
       <c r="G66">
-        <v>62712</v>
+        <v>112706</v>
       </c>
       <c r="H66">
-        <v>63830</v>
+        <v>114402</v>
       </c>
       <c r="I66">
-        <v>64876</v>
+        <v>116052</v>
       </c>
       <c r="J66">
-        <v>65924</v>
+        <v>117756</v>
       </c>
       <c r="K66">
-        <v>66885</v>
+        <v>119500</v>
       </c>
       <c r="L66">
-        <v>67784</v>
+        <v>121226</v>
       </c>
       <c r="M66">
-        <v>68625</v>
+        <v>122784</v>
       </c>
       <c r="N66" t="s">
         <v>54</v>
@@ -3763,40 +3761,40 @@
         <v>602</v>
       </c>
       <c r="B67">
-        <v>13929</v>
+        <v>25785</v>
       </c>
       <c r="C67">
-        <v>14346</v>
+        <v>26324</v>
       </c>
       <c r="D67">
-        <v>14682</v>
+        <v>26784</v>
       </c>
       <c r="E67">
-        <v>14994</v>
+        <v>23873</v>
       </c>
       <c r="F67">
-        <v>14994</v>
+        <v>27210</v>
       </c>
       <c r="G67">
-        <v>15618</v>
+        <v>28068</v>
       </c>
       <c r="H67">
-        <v>15896</v>
+        <v>28490</v>
       </c>
       <c r="I67">
-        <v>16156</v>
+        <v>28901</v>
       </c>
       <c r="J67">
-        <v>16418</v>
+        <v>29325</v>
       </c>
       <c r="K67">
-        <v>16657</v>
+        <v>29760</v>
       </c>
       <c r="L67">
-        <v>16881</v>
+        <v>30190</v>
       </c>
       <c r="M67">
-        <v>17090</v>
+        <v>30577</v>
       </c>
       <c r="N67" t="s">
         <v>54</v>
@@ -3810,40 +3808,40 @@
         <v>603</v>
       </c>
       <c r="B68">
-        <v>22001</v>
+        <v>40729</v>
       </c>
       <c r="C68">
-        <v>22660</v>
+        <v>41581</v>
       </c>
       <c r="D68">
-        <v>23190</v>
+        <v>42307</v>
       </c>
       <c r="E68">
-        <v>23683</v>
+        <v>37707</v>
       </c>
       <c r="F68">
-        <v>23683</v>
+        <v>42980</v>
       </c>
       <c r="G68">
-        <v>24668</v>
+        <v>44335</v>
       </c>
       <c r="H68">
-        <v>25108</v>
+        <v>45002</v>
       </c>
       <c r="I68">
-        <v>25520</v>
+        <v>45652</v>
       </c>
       <c r="J68">
-        <v>25932</v>
+        <v>46322</v>
       </c>
       <c r="K68">
-        <v>26310</v>
+        <v>47008</v>
       </c>
       <c r="L68">
-        <v>26664</v>
+        <v>47687</v>
       </c>
       <c r="M68">
-        <v>26995</v>
+        <v>48300</v>
       </c>
       <c r="N68" t="s">
         <v>54</v>
@@ -3857,40 +3855,40 @@
         <v>604</v>
       </c>
       <c r="B69">
-        <v>6297</v>
+        <v>11658</v>
       </c>
       <c r="C69">
-        <v>6486</v>
+        <v>11902</v>
       </c>
       <c r="D69">
-        <v>6638</v>
+        <v>12110</v>
       </c>
       <c r="E69">
-        <v>6779</v>
+        <v>10793</v>
       </c>
       <c r="F69">
-        <v>6779</v>
+        <v>12303</v>
       </c>
       <c r="G69">
-        <v>7061</v>
+        <v>12690</v>
       </c>
       <c r="H69">
-        <v>7187</v>
+        <v>12881</v>
       </c>
       <c r="I69">
-        <v>7304</v>
+        <v>13067</v>
       </c>
       <c r="J69">
-        <v>7422</v>
+        <v>13259</v>
       </c>
       <c r="K69">
-        <v>7531</v>
+        <v>13455</v>
       </c>
       <c r="L69">
-        <v>7632</v>
+        <v>13650</v>
       </c>
       <c r="M69">
-        <v>7727</v>
+        <v>13825</v>
       </c>
       <c r="N69" t="s">
         <v>54</v>
@@ -3904,40 +3902,40 @@
         <v>605</v>
       </c>
       <c r="B70">
-        <v>14313</v>
+        <v>26495</v>
       </c>
       <c r="C70">
-        <v>14741</v>
+        <v>27050</v>
       </c>
       <c r="D70">
-        <v>15086</v>
+        <v>27522</v>
       </c>
       <c r="E70">
-        <v>15407</v>
+        <v>24530</v>
       </c>
       <c r="F70">
-        <v>15407</v>
+        <v>27960</v>
       </c>
       <c r="G70">
-        <v>16048</v>
+        <v>28841</v>
       </c>
       <c r="H70">
-        <v>16334</v>
+        <v>29275</v>
       </c>
       <c r="I70">
-        <v>16602</v>
+        <v>29698</v>
       </c>
       <c r="J70">
-        <v>16870</v>
+        <v>30133</v>
       </c>
       <c r="K70">
-        <v>17116</v>
+        <v>30580</v>
       </c>
       <c r="L70">
-        <v>17346</v>
+        <v>31022</v>
       </c>
       <c r="M70">
-        <v>17561</v>
+        <v>31420</v>
       </c>
       <c r="N70" t="s">
         <v>54</v>
@@ -3951,40 +3949,40 @@
         <v>606</v>
       </c>
       <c r="B71">
-        <v>13062</v>
+        <v>24179</v>
       </c>
       <c r="C71">
-        <v>13453</v>
+        <v>24685</v>
       </c>
       <c r="D71">
-        <v>13768</v>
+        <v>25116</v>
       </c>
       <c r="E71">
-        <v>14060</v>
+        <v>22386</v>
       </c>
       <c r="F71">
-        <v>14060</v>
+        <v>25516</v>
       </c>
       <c r="G71">
-        <v>14645</v>
+        <v>26320</v>
       </c>
       <c r="H71">
-        <v>14906</v>
+        <v>26716</v>
       </c>
       <c r="I71">
-        <v>15151</v>
+        <v>27102</v>
       </c>
       <c r="J71">
-        <v>15396</v>
+        <v>27500</v>
       </c>
       <c r="K71">
-        <v>15620</v>
+        <v>27907</v>
       </c>
       <c r="L71">
-        <v>15830</v>
+        <v>28310</v>
       </c>
       <c r="M71">
-        <v>16026</v>
+        <v>28674</v>
       </c>
       <c r="N71" t="s">
         <v>54</v>
@@ -3998,40 +3996,40 @@
         <v>607</v>
       </c>
       <c r="B72">
-        <v>19038</v>
+        <v>35243</v>
       </c>
       <c r="C72">
-        <v>19608</v>
+        <v>35981</v>
       </c>
       <c r="D72">
-        <v>20066</v>
+        <v>36609</v>
       </c>
       <c r="E72">
-        <v>20493</v>
+        <v>32628</v>
       </c>
       <c r="F72">
-        <v>20493</v>
+        <v>37191</v>
       </c>
       <c r="G72">
-        <v>21346</v>
+        <v>38364</v>
       </c>
       <c r="H72">
-        <v>21726</v>
+        <v>38941</v>
       </c>
       <c r="I72">
-        <v>22082</v>
+        <v>39503</v>
       </c>
       <c r="J72">
-        <v>22439</v>
+        <v>40082</v>
       </c>
       <c r="K72">
-        <v>22766</v>
+        <v>40676</v>
       </c>
       <c r="L72">
-        <v>23072</v>
+        <v>41264</v>
       </c>
       <c r="M72">
-        <v>23359</v>
+        <v>41794</v>
       </c>
       <c r="N72" t="s">
         <v>54</v>
@@ -4045,40 +4043,40 @@
         <v>608</v>
       </c>
       <c r="B73">
-        <v>18699</v>
+        <v>34615</v>
       </c>
       <c r="C73">
-        <v>19259</v>
+        <v>35340</v>
       </c>
       <c r="D73">
-        <v>19709</v>
+        <v>35957</v>
       </c>
       <c r="E73">
-        <v>20128</v>
+        <v>32047</v>
       </c>
       <c r="F73">
-        <v>20128</v>
+        <v>36529</v>
       </c>
       <c r="G73">
-        <v>20966</v>
+        <v>37680</v>
       </c>
       <c r="H73">
-        <v>21339</v>
+        <v>38247</v>
       </c>
       <c r="I73">
-        <v>21689</v>
+        <v>38799</v>
       </c>
       <c r="J73">
-        <v>22040</v>
+        <v>39369</v>
       </c>
       <c r="K73">
-        <v>22361</v>
+        <v>39952</v>
       </c>
       <c r="L73">
-        <v>22661</v>
+        <v>40529</v>
       </c>
       <c r="M73">
-        <v>22943</v>
+        <v>41050</v>
       </c>
       <c r="N73" t="s">
         <v>54</v>
@@ -4092,40 +4090,40 @@
         <v>609</v>
       </c>
       <c r="B74">
-        <v>7836</v>
+        <v>14507</v>
       </c>
       <c r="C74">
-        <v>8071</v>
+        <v>14810</v>
       </c>
       <c r="D74">
-        <v>8260</v>
+        <v>15069</v>
       </c>
       <c r="E74">
-        <v>8435</v>
+        <v>13430</v>
       </c>
       <c r="F74">
-        <v>8435</v>
+        <v>15309</v>
       </c>
       <c r="G74">
-        <v>8786</v>
+        <v>15791</v>
       </c>
       <c r="H74">
-        <v>8943</v>
+        <v>16029</v>
       </c>
       <c r="I74">
-        <v>9090</v>
+        <v>16260</v>
       </c>
       <c r="J74">
-        <v>9236</v>
+        <v>16499</v>
       </c>
       <c r="K74">
-        <v>9371</v>
+        <v>16743</v>
       </c>
       <c r="L74">
-        <v>9497</v>
+        <v>16985</v>
       </c>
       <c r="M74">
-        <v>9615</v>
+        <v>17203</v>
       </c>
       <c r="N74" t="s">
         <v>54</v>
@@ -4139,40 +4137,40 @@
         <v>610</v>
       </c>
       <c r="B75">
-        <v>20342</v>
+        <v>37655</v>
       </c>
       <c r="C75">
-        <v>20950</v>
+        <v>38443</v>
       </c>
       <c r="D75">
-        <v>21441</v>
+        <v>39115</v>
       </c>
       <c r="E75">
-        <v>21896</v>
+        <v>34862</v>
       </c>
       <c r="F75">
-        <v>21896</v>
+        <v>39737</v>
       </c>
       <c r="G75">
-        <v>22808</v>
+        <v>40990</v>
       </c>
       <c r="H75">
-        <v>23214</v>
+        <v>41606</v>
       </c>
       <c r="I75">
-        <v>23595</v>
+        <v>42207</v>
       </c>
       <c r="J75">
-        <v>23976</v>
+        <v>42826</v>
       </c>
       <c r="K75">
-        <v>24325</v>
+        <v>43461</v>
       </c>
       <c r="L75">
-        <v>24652</v>
+        <v>44088</v>
       </c>
       <c r="M75">
-        <v>24958</v>
+        <v>44655</v>
       </c>
       <c r="N75" t="s">
         <v>54</v>
@@ -4186,40 +4184,40 @@
         <v>611</v>
       </c>
       <c r="B76">
-        <v>8378</v>
+        <v>15510</v>
       </c>
       <c r="C76">
-        <v>8629</v>
+        <v>15835</v>
       </c>
       <c r="D76">
-        <v>8831</v>
+        <v>16111</v>
       </c>
       <c r="E76">
-        <v>9018</v>
+        <v>14358</v>
       </c>
       <c r="F76">
-        <v>9018</v>
+        <v>16367</v>
       </c>
       <c r="G76">
-        <v>9394</v>
+        <v>16883</v>
       </c>
       <c r="H76">
-        <v>9561</v>
+        <v>17137</v>
       </c>
       <c r="I76">
-        <v>9718</v>
+        <v>17385</v>
       </c>
       <c r="J76">
-        <v>9875</v>
+        <v>17640</v>
       </c>
       <c r="K76">
-        <v>10019</v>
+        <v>17901</v>
       </c>
       <c r="L76">
-        <v>10154</v>
+        <v>18160</v>
       </c>
       <c r="M76">
-        <v>10280</v>
+        <v>18393</v>
       </c>
       <c r="N76" t="s">
         <v>54</v>
@@ -4233,40 +4231,40 @@
         <v>701</v>
       </c>
       <c r="B77">
-        <v>45912</v>
+        <v>84991</v>
       </c>
       <c r="C77">
-        <v>47286</v>
+        <v>86770</v>
       </c>
       <c r="D77">
-        <v>48393</v>
+        <v>88285</v>
       </c>
       <c r="E77">
-        <v>49421</v>
+        <v>78686</v>
       </c>
       <c r="F77">
-        <v>49421</v>
+        <v>89689</v>
       </c>
       <c r="G77">
-        <v>51478</v>
+        <v>92517</v>
       </c>
       <c r="H77">
-        <v>52395</v>
+        <v>93909</v>
       </c>
       <c r="I77">
-        <v>53254</v>
+        <v>95264</v>
       </c>
       <c r="J77">
-        <v>54115</v>
+        <v>96662</v>
       </c>
       <c r="K77">
-        <v>54903</v>
+        <v>98094</v>
       </c>
       <c r="L77">
-        <v>55642</v>
+        <v>99511</v>
       </c>
       <c r="M77">
-        <v>56332</v>
+        <v>100789</v>
       </c>
       <c r="N77" t="s">
         <v>50</v>
@@ -4280,40 +4278,40 @@
         <v>702</v>
       </c>
       <c r="B78">
-        <v>61253</v>
+        <v>113389</v>
       </c>
       <c r="C78">
-        <v>63086</v>
+        <v>115762</v>
       </c>
       <c r="D78">
-        <v>64562</v>
+        <v>117783</v>
       </c>
       <c r="E78">
-        <v>65935</v>
+        <v>104979</v>
       </c>
       <c r="F78">
-        <v>65935</v>
+        <v>119657</v>
       </c>
       <c r="G78">
-        <v>68679</v>
+        <v>123429</v>
       </c>
       <c r="H78">
-        <v>69902</v>
+        <v>125286</v>
       </c>
       <c r="I78">
-        <v>71048</v>
+        <v>127094</v>
       </c>
       <c r="J78">
-        <v>72196</v>
+        <v>128959</v>
       </c>
       <c r="K78">
-        <v>73248</v>
+        <v>130870</v>
       </c>
       <c r="L78">
-        <v>74233</v>
+        <v>132760</v>
       </c>
       <c r="M78">
-        <v>75154</v>
+        <v>134466</v>
       </c>
       <c r="N78" t="s">
         <v>50</v>
@@ -4327,40 +4325,40 @@
         <v>703</v>
       </c>
       <c r="B79">
-        <v>27614</v>
+        <v>51118</v>
       </c>
       <c r="C79">
-        <v>28440</v>
+        <v>52188</v>
       </c>
       <c r="D79">
-        <v>29106</v>
+        <v>53099</v>
       </c>
       <c r="E79">
-        <v>29724</v>
+        <v>47325</v>
       </c>
       <c r="F79">
-        <v>29724</v>
+        <v>53944</v>
       </c>
       <c r="G79">
-        <v>30962</v>
+        <v>55645</v>
       </c>
       <c r="H79">
-        <v>31513</v>
+        <v>56482</v>
       </c>
       <c r="I79">
-        <v>32030</v>
+        <v>57297</v>
       </c>
       <c r="J79">
-        <v>32547</v>
+        <v>58137</v>
       </c>
       <c r="K79">
-        <v>33022</v>
+        <v>58999</v>
       </c>
       <c r="L79">
-        <v>33466</v>
+        <v>59851</v>
       </c>
       <c r="M79">
-        <v>33881</v>
+        <v>60620</v>
       </c>
       <c r="N79" t="s">
         <v>50</v>
@@ -4374,40 +4372,40 @@
         <v>704</v>
       </c>
       <c r="B80">
-        <v>14935</v>
+        <v>27646</v>
       </c>
       <c r="C80">
-        <v>15382</v>
+        <v>28225</v>
       </c>
       <c r="D80">
-        <v>15741</v>
+        <v>28718</v>
       </c>
       <c r="E80">
-        <v>16076</v>
+        <v>25595</v>
       </c>
       <c r="F80">
-        <v>16076</v>
+        <v>29175</v>
       </c>
       <c r="G80">
-        <v>16745</v>
+        <v>30094</v>
       </c>
       <c r="H80">
-        <v>17044</v>
+        <v>30547</v>
       </c>
       <c r="I80">
-        <v>17323</v>
+        <v>30988</v>
       </c>
       <c r="J80">
-        <v>17603</v>
+        <v>31443</v>
       </c>
       <c r="K80">
-        <v>17859</v>
+        <v>31909</v>
       </c>
       <c r="L80">
-        <v>18099</v>
+        <v>32369</v>
       </c>
       <c r="M80">
-        <v>18324</v>
+        <v>32785</v>
       </c>
       <c r="N80" t="s">
         <v>50</v>
@@ -4421,40 +4419,40 @@
         <v>705</v>
       </c>
       <c r="B81">
-        <v>18343</v>
+        <v>33956</v>
       </c>
       <c r="C81">
-        <v>18892</v>
+        <v>34667</v>
       </c>
       <c r="D81">
-        <v>19334</v>
+        <v>35272</v>
       </c>
       <c r="E81">
-        <v>19745</v>
+        <v>31437</v>
       </c>
       <c r="F81">
-        <v>19745</v>
+        <v>35833</v>
       </c>
       <c r="G81">
-        <v>20567</v>
+        <v>36963</v>
       </c>
       <c r="H81">
-        <v>20933</v>
+        <v>37519</v>
       </c>
       <c r="I81">
-        <v>21276</v>
+        <v>38060</v>
       </c>
       <c r="J81">
-        <v>21620</v>
+        <v>38619</v>
       </c>
       <c r="K81">
-        <v>21935</v>
+        <v>39191</v>
       </c>
       <c r="L81">
-        <v>22230</v>
+        <v>39757</v>
       </c>
       <c r="M81">
-        <v>22506</v>
+        <v>40268</v>
       </c>
       <c r="N81" t="s">
         <v>50</v>
@@ -4468,40 +4466,40 @@
         <v>706</v>
       </c>
       <c r="B82">
-        <v>20067</v>
+        <v>37147</v>
       </c>
       <c r="C82">
-        <v>20667</v>
+        <v>37924</v>
       </c>
       <c r="D82">
-        <v>21151</v>
+        <v>38587</v>
       </c>
       <c r="E82">
-        <v>21601</v>
+        <v>34392</v>
       </c>
       <c r="F82">
-        <v>21601</v>
+        <v>39200</v>
       </c>
       <c r="G82">
-        <v>22500</v>
+        <v>40436</v>
       </c>
       <c r="H82">
-        <v>22901</v>
+        <v>41045</v>
       </c>
       <c r="I82">
-        <v>23276</v>
+        <v>41637</v>
       </c>
       <c r="J82">
-        <v>23652</v>
+        <v>42248</v>
       </c>
       <c r="K82">
-        <v>23997</v>
+        <v>42874</v>
       </c>
       <c r="L82">
-        <v>24319</v>
+        <v>43493</v>
       </c>
       <c r="M82">
-        <v>24621</v>
+        <v>44052</v>
       </c>
       <c r="N82" t="s">
         <v>50</v>
@@ -4512,5 +4510,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>